--- a/biology/Zoologie/Holopodidae/Holopodidae.xlsx
+++ b/biology/Zoologie/Holopodidae/Holopodidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Holopodidae sont une famille de Crinoïdes (Echinodermes), de l'ordre des Cyrtocrinida.
 </t>
@@ -511,10 +523,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont de gros crinoïdes sessiles mais non pédonculés (attachés directement au substrat), à la forme massive et rappelant plus ou moins un poing, ouvert comme fermé[1]. Parmi les 5 rayons basals, on en compte 3 robustes et 2 plus graciles, supportant au total 10 bras[1]. Les plaques qui composent le squelette sont épaisses et souvent soudées, avec des articulations rares et musculeuses[2].
-Cette famille semble être apparue entre la fin du Jurassique et le début du Crétacé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont de gros crinoïdes sessiles mais non pédonculés (attachés directement au substrat), à la forme massive et rappelant plus ou moins un poing, ouvert comme fermé. Parmi les 5 rayons basals, on en compte 3 robustes et 2 plus graciles, supportant au total 10 bras. Les plaques qui composent le squelette sont épaisses et souvent soudées, avec des articulations rares et musculeuses.
+Cette famille semble être apparue entre la fin du Jurassique et le début du Crétacé.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Nourriture et mode de vie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces crinoïdes, relativement rares, vivent fixés à l'envers sur des substrats rocheux à grande profondeur (entre 100 et 900 m), où ils semblent capturer de petits animaux (notamment des poissons) à la volée, en se refermant vivement sur eux à la manière d'une main[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces crinoïdes, relativement rares, vivent fixés à l'envers sur des substrats rocheux à grande profondeur (entre 100 et 900 m), où ils semblent capturer de petits animaux (notamment des poissons) à la volée, en se refermant vivement sur eux à la manière d'une main.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (7 mai 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (7 mai 2014) :
 genre Cyathidium Steenstrup, 1847 -- 2 espèces
 genre Holopus d'Orbigny, 1837 -- 3 espèces
 </t>
